--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl16-Cxcr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Cxcl16</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.0691266053824</v>
+        <v>3.816805333333333</v>
       </c>
       <c r="H2">
-        <v>3.0691266053824</v>
+        <v>11.450416</v>
       </c>
       <c r="I2">
-        <v>0.0511956021021281</v>
+        <v>0.05221889925483283</v>
       </c>
       <c r="J2">
-        <v>0.0511956021021281</v>
+        <v>0.05221889925483283</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9919305917012901</v>
+        <v>0.5101166666666667</v>
       </c>
       <c r="N2">
-        <v>0.9919305917012901</v>
+        <v>1.53035</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1953985608420697</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1953985608420697</v>
       </c>
       <c r="Q2">
-        <v>3.044360569683136</v>
+        <v>1.947016013955555</v>
       </c>
       <c r="R2">
-        <v>3.044360569683136</v>
+        <v>17.5231441256</v>
       </c>
       <c r="S2">
-        <v>0.0511956021021281</v>
+        <v>0.01020349776315136</v>
       </c>
       <c r="T2">
-        <v>0.0511956021021281</v>
+        <v>0.01020349776315136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.3107098802698</v>
+        <v>3.816805333333333</v>
       </c>
       <c r="H3">
-        <v>6.3107098802698</v>
+        <v>11.450416</v>
       </c>
       <c r="I3">
-        <v>0.1052679258801729</v>
+        <v>0.05221889925483283</v>
       </c>
       <c r="J3">
-        <v>0.1052679258801729</v>
+        <v>0.05221889925483283</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9919305917012901</v>
+        <v>1.141707</v>
       </c>
       <c r="N3">
-        <v>0.9919305917012901</v>
+        <v>3.425121</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.437327221949195</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.437327221949195</v>
       </c>
       <c r="Q3">
-        <v>6.2597861855912</v>
+        <v>4.357673366704</v>
       </c>
       <c r="R3">
-        <v>6.2597861855912</v>
+        <v>39.219060300336</v>
       </c>
       <c r="S3">
-        <v>0.1052679258801729</v>
+        <v>0.02283674614436093</v>
       </c>
       <c r="T3">
-        <v>0.1052679258801729</v>
+        <v>0.02283674614436093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.816805333333333</v>
+      </c>
+      <c r="H4">
+        <v>11.450416</v>
+      </c>
+      <c r="I4">
+        <v>0.05221889925483283</v>
+      </c>
+      <c r="J4">
+        <v>0.05221889925483283</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.6540353333333333</v>
+      </c>
+      <c r="N4">
+        <v>1.962106</v>
+      </c>
+      <c r="O4">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="P4">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="Q4">
+        <v>2.496325548455111</v>
+      </c>
+      <c r="R4">
+        <v>22.466929936096</v>
+      </c>
+      <c r="S4">
+        <v>0.01308219961581721</v>
+      </c>
+      <c r="T4">
+        <v>0.01308219961581721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.816805333333333</v>
+      </c>
+      <c r="H5">
+        <v>11.450416</v>
+      </c>
+      <c r="I5">
+        <v>0.05221889925483283</v>
+      </c>
+      <c r="J5">
+        <v>0.05221889925483283</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.304788</v>
+      </c>
+      <c r="N5">
+        <v>0.914364</v>
+      </c>
+      <c r="O5">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="P5">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="Q5">
+        <v>1.163316463936</v>
+      </c>
+      <c r="R5">
+        <v>10.469848175424</v>
+      </c>
+      <c r="S5">
+        <v>0.006096455731503336</v>
+      </c>
+      <c r="T5">
+        <v>0.006096455731503336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.418049333333333</v>
+      </c>
+      <c r="H6">
+        <v>19.254148</v>
+      </c>
+      <c r="I6">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="J6">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.5101166666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.53035</v>
+      </c>
+      <c r="O6">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="P6">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="Q6">
+        <v>3.273953932422222</v>
+      </c>
+      <c r="R6">
+        <v>29.4655853918</v>
+      </c>
+      <c r="S6">
+        <v>0.0171574252017905</v>
+      </c>
+      <c r="T6">
+        <v>0.0171574252017905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>50.569191934014</v>
-      </c>
-      <c r="H4">
-        <v>50.569191934014</v>
-      </c>
-      <c r="I4">
-        <v>0.843536472017699</v>
-      </c>
-      <c r="J4">
-        <v>0.843536472017699</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.9919305917012901</v>
-      </c>
-      <c r="N4">
-        <v>0.9919305917012901</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>50.16112847696261</v>
-      </c>
-      <c r="R4">
-        <v>50.16112847696261</v>
-      </c>
-      <c r="S4">
-        <v>0.843536472017699</v>
-      </c>
-      <c r="T4">
-        <v>0.843536472017699</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.418049333333333</v>
+      </c>
+      <c r="H7">
+        <v>19.254148</v>
+      </c>
+      <c r="I7">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="J7">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.141707</v>
+      </c>
+      <c r="N7">
+        <v>3.425121</v>
+      </c>
+      <c r="O7">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="P7">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="Q7">
+        <v>7.327531850212</v>
+      </c>
+      <c r="R7">
+        <v>65.947786651908</v>
+      </c>
+      <c r="S7">
+        <v>0.0384005341030365</v>
+      </c>
+      <c r="T7">
+        <v>0.03840053410303649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.418049333333333</v>
+      </c>
+      <c r="H8">
+        <v>19.254148</v>
+      </c>
+      <c r="I8">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="J8">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.6540353333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.962106</v>
+      </c>
+      <c r="O8">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="P8">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="Q8">
+        <v>4.197631035076444</v>
+      </c>
+      <c r="R8">
+        <v>37.778679315688</v>
+      </c>
+      <c r="S8">
+        <v>0.02199803112554929</v>
+      </c>
+      <c r="T8">
+        <v>0.02199803112554929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.418049333333333</v>
+      </c>
+      <c r="H9">
+        <v>19.254148</v>
+      </c>
+      <c r="I9">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="J9">
+        <v>0.08780732635824244</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.304788</v>
+      </c>
+      <c r="N9">
+        <v>0.914364</v>
+      </c>
+      <c r="O9">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="P9">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="Q9">
+        <v>1.956144420208</v>
+      </c>
+      <c r="R9">
+        <v>17.605299781872</v>
+      </c>
+      <c r="S9">
+        <v>0.01025133592786616</v>
+      </c>
+      <c r="T9">
+        <v>0.01025133592786616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>62.72425333333333</v>
+      </c>
+      <c r="H10">
+        <v>188.17276</v>
+      </c>
+      <c r="I10">
+        <v>0.8581499918381862</v>
+      </c>
+      <c r="J10">
+        <v>0.8581499918381861</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.5101166666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.53035</v>
+      </c>
+      <c r="O10">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="P10">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="Q10">
+        <v>31.99668702955555</v>
+      </c>
+      <c r="R10">
+        <v>287.9701832659999</v>
+      </c>
+      <c r="S10">
+        <v>0.1676812733918154</v>
+      </c>
+      <c r="T10">
+        <v>0.1676812733918154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>62.72425333333333</v>
+      </c>
+      <c r="H11">
+        <v>188.17276</v>
+      </c>
+      <c r="I11">
+        <v>0.8581499918381862</v>
+      </c>
+      <c r="J11">
+        <v>0.8581499918381861</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.141707</v>
+      </c>
+      <c r="N11">
+        <v>3.425121</v>
+      </c>
+      <c r="O11">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="P11">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="Q11">
+        <v>71.61271910044</v>
+      </c>
+      <c r="R11">
+        <v>644.5144719039599</v>
+      </c>
+      <c r="S11">
+        <v>0.3752923519463184</v>
+      </c>
+      <c r="T11">
+        <v>0.3752923519463183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>62.72425333333333</v>
+      </c>
+      <c r="H12">
+        <v>188.17276</v>
+      </c>
+      <c r="I12">
+        <v>0.8581499918381862</v>
+      </c>
+      <c r="J12">
+        <v>0.8581499918381861</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.6540353333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.962106</v>
+      </c>
+      <c r="O12">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="P12">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="Q12">
+        <v>41.02387793695111</v>
+      </c>
+      <c r="R12">
+        <v>369.2149014325599</v>
+      </c>
+      <c r="S12">
+        <v>0.2149890107555274</v>
+      </c>
+      <c r="T12">
+        <v>0.2149890107555274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>62.72425333333333</v>
+      </c>
+      <c r="H13">
+        <v>188.17276</v>
+      </c>
+      <c r="I13">
+        <v>0.8581499918381862</v>
+      </c>
+      <c r="J13">
+        <v>0.8581499918381861</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.304788</v>
+      </c>
+      <c r="N13">
+        <v>0.914364</v>
+      </c>
+      <c r="O13">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="P13">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="Q13">
+        <v>19.11759972496</v>
+      </c>
+      <c r="R13">
+        <v>172.05839752464</v>
+      </c>
+      <c r="S13">
+        <v>0.1001873557445251</v>
+      </c>
+      <c r="T13">
+        <v>0.100187355744525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1333046666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.399914</v>
+      </c>
+      <c r="I14">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="J14">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.5101166666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.53035</v>
+      </c>
+      <c r="O14">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="P14">
+        <v>0.1953985608420697</v>
+      </c>
+      <c r="Q14">
+        <v>0.0680009322111111</v>
+      </c>
+      <c r="R14">
+        <v>0.6120083898999999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003563644853124037</v>
+      </c>
+      <c r="T14">
+        <v>0.0003563644853124037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1333046666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.399914</v>
+      </c>
+      <c r="I15">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="J15">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.141707</v>
+      </c>
+      <c r="N15">
+        <v>3.425121</v>
+      </c>
+      <c r="O15">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="P15">
+        <v>0.437327221949195</v>
+      </c>
+      <c r="Q15">
+        <v>0.152194871066</v>
+      </c>
+      <c r="R15">
+        <v>1.369753839594</v>
+      </c>
+      <c r="S15">
+        <v>0.0007975897554792731</v>
+      </c>
+      <c r="T15">
+        <v>0.0007975897554792731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1333046666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.399914</v>
+      </c>
+      <c r="I16">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="J16">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.6540353333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.962106</v>
+      </c>
+      <c r="O16">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="P16">
+        <v>0.2505261467112687</v>
+      </c>
+      <c r="Q16">
+        <v>0.08718596209822221</v>
+      </c>
+      <c r="R16">
+        <v>0.784673658884</v>
+      </c>
+      <c r="S16">
+        <v>0.0004569052143747373</v>
+      </c>
+      <c r="T16">
+        <v>0.0004569052143747373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1333046666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.399914</v>
+      </c>
+      <c r="I17">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="J17">
+        <v>0.001823782548738597</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.304788</v>
+      </c>
+      <c r="N17">
+        <v>0.914364</v>
+      </c>
+      <c r="O17">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="P17">
+        <v>0.1167480704974667</v>
+      </c>
+      <c r="Q17">
+        <v>0.040629662744</v>
+      </c>
+      <c r="R17">
+        <v>0.365666964696</v>
+      </c>
+      <c r="S17">
+        <v>0.0002129230935721833</v>
+      </c>
+      <c r="T17">
+        <v>0.0002129230935721833</v>
       </c>
     </row>
   </sheetData>
